--- a/Instructions.xlsx
+++ b/Instructions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\CPU\CPU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E7AA010-DAFE-45DA-8924-BBF49D7D6619}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C004B7E-64F2-47D2-B924-483C0C3DD434}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="8952" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -182,9 +182,6 @@
     <t>01100</t>
   </si>
   <si>
-    <t>!011[10:8]</t>
-  </si>
-  <si>
     <t>SP</t>
   </si>
   <si>
@@ -400,9 +397,6 @@
   </si>
   <si>
     <t>00110</t>
-  </si>
-  <si>
-    <t>!00[1:0]</t>
   </si>
   <si>
     <t>imm[4:2]</t>
@@ -626,6 +620,14 @@
   </si>
   <si>
     <t>sltu 1010</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>!011[10:8]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>!00[1:0]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -729,11 +731,11 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1083,8 +1085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J26" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -1224,7 +1226,7 @@
         <v>30</v>
       </c>
       <c r="N3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>34</v>
@@ -1286,7 +1288,7 @@
         <v>30</v>
       </c>
       <c r="N4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="O4" s="2" t="s">
         <v>34</v>
@@ -1317,29 +1319,29 @@
       <c r="C5" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="E5" t="s">
         <v>46</v>
-      </c>
-      <c r="E5" t="s">
-        <v>47</v>
       </c>
       <c r="F5" t="s">
         <v>29</v>
       </c>
       <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>32</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>33</v>
@@ -1348,7 +1350,7 @@
         <v>30</v>
       </c>
       <c r="N5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="O5" s="2" t="s">
         <v>34</v>
@@ -1371,16 +1373,16 @@
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" t="s">
         <v>49</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" t="s">
         <v>51</v>
-      </c>
-      <c r="D6" t="s">
-        <v>52</v>
       </c>
       <c r="E6" t="s">
         <v>28</v>
@@ -1389,16 +1391,16 @@
         <v>40</v>
       </c>
       <c r="G6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>31</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>41</v>
@@ -1410,7 +1412,7 @@
         <v>34</v>
       </c>
       <c r="N6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="O6" s="2" t="s">
         <v>34</v>
@@ -1425,24 +1427,24 @@
         <v>34</v>
       </c>
       <c r="T6" t="s">
+        <v>48</v>
+      </c>
+      <c r="U6" t="s">
         <v>49</v>
-      </c>
-      <c r="U6" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" t="s">
         <v>56</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="D7" t="s">
         <v>58</v>
-      </c>
-      <c r="D7" t="s">
-        <v>59</v>
       </c>
       <c r="E7" t="s">
         <v>28</v>
@@ -1454,13 +1456,13 @@
         <v>28</v>
       </c>
       <c r="H7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>31</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>31</v>
@@ -1472,7 +1474,7 @@
         <v>34</v>
       </c>
       <c r="N7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>34</v>
@@ -1487,48 +1489,48 @@
         <v>34</v>
       </c>
       <c r="T7" t="s">
+        <v>55</v>
+      </c>
+      <c r="U7" t="s">
         <v>56</v>
-      </c>
-      <c r="U7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" t="s">
         <v>60</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="E8" t="s">
         <v>62</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>63</v>
       </c>
-      <c r="F8" t="s">
+      <c r="H8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L8" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="M8" t="s">
-        <v>54</v>
-      </c>
-      <c r="N8" s="9" t="s">
-        <v>151</v>
+        <v>53</v>
+      </c>
+      <c r="N8" s="8" t="s">
+        <v>149</v>
       </c>
       <c r="O8" s="2" t="s">
         <v>34</v>
@@ -1540,27 +1542,27 @@
         <v>34</v>
       </c>
       <c r="R8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T8" t="s">
+        <v>59</v>
+      </c>
+      <c r="U8" t="s">
         <v>60</v>
-      </c>
-      <c r="U8" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" t="s">
         <v>66</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="E9" t="s">
         <v>68</v>
-      </c>
-      <c r="E9" t="s">
-        <v>69</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
@@ -1575,48 +1577,48 @@
         <v>32</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L9" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M9" t="s">
+        <v>53</v>
+      </c>
+      <c r="N9" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R9" t="s">
+        <v>53</v>
+      </c>
+      <c r="T9" t="s">
         <v>65</v>
       </c>
-      <c r="M9" t="s">
-        <v>54</v>
-      </c>
-      <c r="N9" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="O9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="P9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="R9" t="s">
-        <v>54</v>
-      </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>66</v>
-      </c>
-      <c r="U9" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" t="s">
         <v>70</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="E10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -1631,16 +1633,16 @@
         <v>32</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M10" t="s">
-        <v>54</v>
-      </c>
-      <c r="N10" s="9" t="s">
-        <v>153</v>
+        <v>53</v>
+      </c>
+      <c r="N10" s="8" t="s">
+        <v>151</v>
       </c>
       <c r="O10" s="2" t="s">
         <v>34</v>
@@ -1652,30 +1654,30 @@
         <v>34</v>
       </c>
       <c r="R10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T10" t="s">
+        <v>69</v>
+      </c>
+      <c r="U10" t="s">
         <v>70</v>
-      </c>
-      <c r="U10" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" t="s">
         <v>73</v>
-      </c>
-      <c r="B11" t="s">
-        <v>74</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>45</v>
       </c>
       <c r="D11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F11" t="s">
         <v>29</v>
@@ -1684,22 +1686,22 @@
         <v>30</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>32</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M11" t="s">
-        <v>54</v>
-      </c>
-      <c r="N11" s="9" t="s">
-        <v>152</v>
+        <v>53</v>
+      </c>
+      <c r="N11" s="8" t="s">
+        <v>150</v>
       </c>
       <c r="O11" s="2" t="s">
         <v>34</v>
@@ -1711,27 +1713,27 @@
         <v>34</v>
       </c>
       <c r="R11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T11" t="s">
+        <v>72</v>
+      </c>
+      <c r="U11" t="s">
         <v>73</v>
-      </c>
-      <c r="U11" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" t="s">
         <v>77</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" t="s">
         <v>78</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D12" t="s">
-        <v>79</v>
       </c>
       <c r="E12" t="s">
         <v>28</v>
@@ -1740,19 +1742,19 @@
         <v>40</v>
       </c>
       <c r="G12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>31</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>33</v>
@@ -1760,8 +1762,8 @@
       <c r="M12" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="N12" s="9" t="s">
-        <v>154</v>
+      <c r="N12" s="8" t="s">
+        <v>152</v>
       </c>
       <c r="O12" s="2" t="s">
         <v>34</v>
@@ -1776,48 +1778,48 @@
         <v>34</v>
       </c>
       <c r="T12" t="s">
+        <v>76</v>
+      </c>
+      <c r="U12" t="s">
         <v>77</v>
-      </c>
-      <c r="U12" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>80</v>
+      </c>
+      <c r="B13" t="s">
         <v>81</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" t="s">
         <v>82</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D13" t="s">
-        <v>83</v>
       </c>
       <c r="E13" t="s">
         <v>28</v>
       </c>
       <c r="H13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>31</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N13" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="O13" s="2" t="s">
         <v>34</v>
@@ -1829,24 +1831,24 @@
         <v>34</v>
       </c>
       <c r="R13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T13" t="s">
+        <v>80</v>
+      </c>
+      <c r="U13" t="s">
         <v>81</v>
-      </c>
-      <c r="U13" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B14" t="s">
         <v>85</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>87</v>
       </c>
       <c r="F14" t="s">
         <v>29</v>
@@ -1858,7 +1860,7 @@
         <v>34</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>32</v>
@@ -1873,7 +1875,7 @@
         <v>30</v>
       </c>
       <c r="N14" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="O14" s="2" t="s">
         <v>34</v>
@@ -1888,27 +1890,27 @@
         <v>34</v>
       </c>
       <c r="T14" t="s">
+        <v>84</v>
+      </c>
+      <c r="U14" t="s">
         <v>85</v>
-      </c>
-      <c r="U14" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>87</v>
+      </c>
+      <c r="B15" t="s">
         <v>88</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="E15" t="s">
         <v>28</v>
       </c>
       <c r="F15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G15" t="s">
         <v>40</v>
@@ -1920,19 +1922,19 @@
         <v>31</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>42</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M15" s="2" t="s">
         <v>30</v>
       </c>
       <c r="N15" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="O15" s="2" t="s">
         <v>30</v>
@@ -1947,24 +1949,24 @@
         <v>30</v>
       </c>
       <c r="T15" t="s">
+        <v>87</v>
+      </c>
+      <c r="U15" t="s">
         <v>88</v>
-      </c>
-      <c r="U15" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>93</v>
+      </c>
+      <c r="B16" t="s">
         <v>94</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="E16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F16" t="s">
         <v>29</v>
@@ -1976,7 +1978,7 @@
         <v>30</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>32</v>
@@ -1985,60 +1987,60 @@
         <v>31</v>
       </c>
       <c r="L16" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N16" t="s">
+        <v>147</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="T16" t="s">
         <v>93</v>
       </c>
-      <c r="M16" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="N16" t="s">
-        <v>149</v>
-      </c>
-      <c r="O16" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="P16" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q16" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="R16" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="T16" t="s">
+      <c r="U16" t="s">
         <v>94</v>
-      </c>
-      <c r="U16" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>96</v>
+      </c>
+      <c r="B17" t="s">
         <v>97</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="D17" t="s">
+        <v>82</v>
+      </c>
+      <c r="E17" t="s">
         <v>99</v>
-      </c>
-      <c r="D17" t="s">
-        <v>83</v>
-      </c>
-      <c r="E17" t="s">
-        <v>100</v>
       </c>
       <c r="G17" t="s">
         <v>28</v>
       </c>
       <c r="H17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>32</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>31</v>
@@ -2047,10 +2049,10 @@
         <v>33</v>
       </c>
       <c r="M17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N17" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="O17" s="2" t="s">
         <v>34</v>
@@ -2065,39 +2067,39 @@
         <v>34</v>
       </c>
       <c r="T17" t="s">
+        <v>96</v>
+      </c>
+      <c r="U17" t="s">
         <v>97</v>
-      </c>
-      <c r="U17" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>100</v>
+      </c>
+      <c r="B18" t="s">
         <v>101</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" t="s">
         <v>102</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D18" t="s">
-        <v>103</v>
-      </c>
       <c r="E18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G18" t="s">
         <v>28</v>
       </c>
       <c r="H18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>41</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>31</v>
@@ -2106,10 +2108,10 @@
         <v>33</v>
       </c>
       <c r="M18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N18" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="O18" s="2" t="s">
         <v>34</v>
@@ -2124,39 +2126,39 @@
         <v>34</v>
       </c>
       <c r="T18" t="s">
+        <v>100</v>
+      </c>
+      <c r="U18" t="s">
         <v>101</v>
-      </c>
-      <c r="U18" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>103</v>
+      </c>
+      <c r="B19" t="s">
         <v>104</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D19" t="s">
         <v>105</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="D19" t="s">
-        <v>106</v>
       </c>
       <c r="E19" t="s">
         <v>28</v>
       </c>
       <c r="G19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>31</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K19" s="2" t="s">
         <v>32</v>
@@ -2165,10 +2167,10 @@
         <v>33</v>
       </c>
       <c r="M19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N19" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="O19" s="2" t="s">
         <v>34</v>
@@ -2183,51 +2185,51 @@
         <v>34</v>
       </c>
       <c r="T19" t="s">
+        <v>103</v>
+      </c>
+      <c r="U19" t="s">
         <v>104</v>
-      </c>
-      <c r="U19" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>106</v>
+      </c>
+      <c r="B20" t="s">
         <v>107</v>
-      </c>
-      <c r="B20" t="s">
-        <v>108</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>45</v>
       </c>
       <c r="D20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E20" t="s">
         <v>28</v>
       </c>
       <c r="G20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>31</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>33</v>
       </c>
       <c r="M20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N20" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="O20" s="2" t="s">
         <v>34</v>
@@ -2242,39 +2244,39 @@
         <v>34</v>
       </c>
       <c r="T20" t="s">
+        <v>106</v>
+      </c>
+      <c r="U20" t="s">
         <v>107</v>
-      </c>
-      <c r="U20" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>109</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="D21" t="s">
         <v>111</v>
       </c>
-      <c r="D21" t="s">
-        <v>112</v>
-      </c>
       <c r="H21" t="s">
+        <v>53</v>
+      </c>
+      <c r="I21" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="I21" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="J21" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>33</v>
       </c>
       <c r="M21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O21" s="2" t="s">
         <v>34</v>
@@ -2289,21 +2291,21 @@
         <v>34</v>
       </c>
       <c r="T21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>112</v>
+      </c>
+      <c r="B22" t="s">
         <v>113</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" t="s">
         <v>114</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D22" t="s">
-        <v>115</v>
       </c>
       <c r="E22" t="s">
         <v>28</v>
@@ -2315,13 +2317,13 @@
         <v>28</v>
       </c>
       <c r="H22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>31</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K22" s="2" t="s">
         <v>31</v>
@@ -2332,8 +2334,8 @@
       <c r="M22" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="N22" s="9" t="s">
-        <v>157</v>
+      <c r="N22" s="8" t="s">
+        <v>155</v>
       </c>
       <c r="O22" s="2" t="s">
         <v>34</v>
@@ -2348,30 +2350,30 @@
         <v>34</v>
       </c>
       <c r="T22" t="s">
+        <v>112</v>
+      </c>
+      <c r="U22" t="s">
         <v>113</v>
-      </c>
-      <c r="U22" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="23" spans="1:21" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>115</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="C23" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="C23" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="D23" t="s">
-        <v>119</v>
+      <c r="D23" s="8" t="s">
+        <v>163</v>
       </c>
       <c r="E23" t="s">
         <v>40</v>
       </c>
       <c r="F23" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G23" t="s">
         <v>28</v>
@@ -2383,7 +2385,7 @@
         <v>42</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K23" s="2" t="s">
         <v>31</v>
@@ -2394,8 +2396,8 @@
       <c r="M23" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="N23" s="9" t="s">
-        <v>158</v>
+      <c r="N23" s="8" t="s">
+        <v>156</v>
       </c>
       <c r="O23" s="2" t="s">
         <v>34</v>
@@ -2410,30 +2412,30 @@
         <v>34</v>
       </c>
       <c r="T23" t="s">
+        <v>115</v>
+      </c>
+      <c r="U23" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="U23" s="1" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="52.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>119</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D24" t="s">
         <v>121</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="D24" t="s">
-        <v>123</v>
       </c>
       <c r="E24" t="s">
         <v>40</v>
       </c>
       <c r="F24" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G24" t="s">
         <v>28</v>
@@ -2445,7 +2447,7 @@
         <v>42</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K24" s="2" t="s">
         <v>31</v>
@@ -2456,8 +2458,8 @@
       <c r="M24" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="N24" s="9" t="s">
-        <v>159</v>
+      <c r="N24" s="8" t="s">
+        <v>157</v>
       </c>
       <c r="O24" s="2" t="s">
         <v>34</v>
@@ -2472,24 +2474,24 @@
         <v>34</v>
       </c>
       <c r="T24" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="U24" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B25" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D25" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E25" t="s">
         <v>28</v>
@@ -2498,16 +2500,16 @@
         <v>40</v>
       </c>
       <c r="G25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>31</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K25" s="2" t="s">
         <v>41</v>
@@ -2518,8 +2520,8 @@
       <c r="M25" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="N25" s="9" t="s">
-        <v>160</v>
+      <c r="N25" s="8" t="s">
+        <v>158</v>
       </c>
       <c r="O25" s="2" t="s">
         <v>34</v>
@@ -2534,27 +2536,27 @@
         <v>34</v>
       </c>
       <c r="T25" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="U25" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>124</v>
+      </c>
+      <c r="B26" t="s">
+        <v>125</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="B26" t="s">
-        <v>127</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="E26" t="s">
         <v>28</v>
       </c>
       <c r="F26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>30</v>
@@ -2563,10 +2565,10 @@
         <v>31</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L26" s="2" t="s">
         <v>33</v>
@@ -2575,7 +2577,7 @@
         <v>30</v>
       </c>
       <c r="N26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="O26" s="2" t="s">
         <v>34</v>
@@ -2587,27 +2589,27 @@
         <v>34</v>
       </c>
       <c r="R26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T26" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="U26" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>127</v>
+      </c>
+      <c r="B27" t="s">
+        <v>128</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B27" t="s">
-        <v>130</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>131</v>
-      </c>
       <c r="E27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F27" t="s">
         <v>29</v>
@@ -2616,13 +2618,13 @@
         <v>30</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J27" s="2" t="s">
         <v>32</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L27" s="2" t="s">
         <v>33</v>
@@ -2631,7 +2633,7 @@
         <v>30</v>
       </c>
       <c r="N27" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="O27" s="2" t="s">
         <v>34</v>
@@ -2643,48 +2645,48 @@
         <v>34</v>
       </c>
       <c r="R27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T27" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="U27" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>130</v>
+      </c>
+      <c r="B29" t="s">
+        <v>131</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29" t="s">
         <v>132</v>
       </c>
-      <c r="B29" t="s">
+      <c r="G29" t="s">
         <v>133</v>
       </c>
-      <c r="C29" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D29" t="s">
-        <v>134</v>
-      </c>
-      <c r="G29" t="s">
-        <v>135</v>
-      </c>
       <c r="H29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I29" s="2" t="s">
         <v>31</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O29" s="2" t="s">
         <v>34</v>
@@ -2696,80 +2698,80 @@
         <v>34</v>
       </c>
       <c r="R29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T29" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="U29" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>134</v>
+      </c>
+      <c r="B30" t="s">
+        <v>135</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D30" t="s">
         <v>136</v>
       </c>
-      <c r="B30" t="s">
-        <v>137</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D30" t="s">
-        <v>138</v>
-      </c>
       <c r="E30" t="s">
+        <v>133</v>
+      </c>
+      <c r="H30" t="s">
+        <v>53</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="M30" t="s">
+        <v>53</v>
+      </c>
+      <c r="N30" t="s">
+        <v>153</v>
+      </c>
+      <c r="O30" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P30" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q30" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R30" t="s">
+        <v>53</v>
+      </c>
+      <c r="T30" t="s">
+        <v>134</v>
+      </c>
+      <c r="U30" t="s">
         <v>135</v>
-      </c>
-      <c r="H30" t="s">
-        <v>54</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="K30" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="L30" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="M30" t="s">
-        <v>54</v>
-      </c>
-      <c r="N30" t="s">
-        <v>155</v>
-      </c>
-      <c r="O30" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="P30" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q30" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="R30" t="s">
-        <v>54</v>
-      </c>
-      <c r="T30" t="s">
-        <v>136</v>
-      </c>
-      <c r="U30" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="31" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>137</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>141</v>
       </c>
       <c r="E31" t="s">
         <v>28</v>
@@ -2778,7 +2780,7 @@
         <v>29</v>
       </c>
       <c r="G31" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>30</v>
@@ -2790,7 +2792,7 @@
         <v>32</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L31" s="2" t="s">
         <v>33</v>
@@ -2798,8 +2800,8 @@
       <c r="M31" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="N31" s="9" t="s">
-        <v>161</v>
+      <c r="N31" s="8" t="s">
+        <v>159</v>
       </c>
       <c r="O31" s="2" t="s">
         <v>34</v>
@@ -2814,30 +2816,30 @@
         <v>34</v>
       </c>
       <c r="T31" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="U31" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="32" spans="1:21" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>140</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D32" t="s">
         <v>142</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="D32" t="s">
-        <v>144</v>
       </c>
       <c r="E32" t="s">
         <v>40</v>
       </c>
       <c r="F32" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G32" t="s">
         <v>28</v>
@@ -2849,7 +2851,7 @@
         <v>42</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K32" s="2" t="s">
         <v>31</v>
@@ -2860,8 +2862,8 @@
       <c r="M32" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="N32" s="9" t="s">
-        <v>162</v>
+      <c r="N32" s="8" t="s">
+        <v>160</v>
       </c>
       <c r="O32" s="2" t="s">
         <v>34</v>
@@ -2876,24 +2878,24 @@
         <v>34</v>
       </c>
       <c r="T32" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="U32" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="33" spans="1:21" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>143</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D33" t="s">
         <v>145</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D33" t="s">
-        <v>147</v>
       </c>
       <c r="E33" t="s">
         <v>28</v>
@@ -2902,19 +2904,19 @@
         <v>40</v>
       </c>
       <c r="G33" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I33" s="2" t="s">
         <v>31</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L33" s="2" t="s">
         <v>33</v>
@@ -2922,8 +2924,8 @@
       <c r="M33" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="N33" s="9" t="s">
-        <v>163</v>
+      <c r="N33" s="8" t="s">
+        <v>161</v>
       </c>
       <c r="O33" s="2" t="s">
         <v>34</v>
@@ -2938,18 +2940,18 @@
         <v>34</v>
       </c>
       <c r="T33" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="U33" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="M35" s="9" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="M35" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="N35" s="8"/>
-      <c r="O35" s="8"/>
+      <c r="N35" s="9"/>
+      <c r="O35" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
